--- a/DataLoading HRIS-First Load-13Apr2022 (1).xlsx
+++ b/DataLoading HRIS-First Load-13Apr2022 (1).xlsx
@@ -2203,7 +2203,7 @@
     <t xml:space="preserve">Bob Hurley</t>
   </si>
   <si>
-    <t xml:space="preserve">RHurley@Cantaloupe.com</t>
+    <t xml:space="preserve">RHurley@cantaloupe.com</t>
   </si>
   <si>
     <t xml:space="preserve">Senior Sales Director</t>
@@ -4285,8 +4285,8 @@
   </sheetPr>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C181" activeCellId="0" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9285,7 +9285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>724</v>
       </c>
@@ -14534,8 +14534,9 @@
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="vjones@cantaloupe.com"/>
     <hyperlink ref="C32" r:id="rId2" display="Cfreeman@cantaloupe.com"/>
-    <hyperlink ref="C343" r:id="rId3" display="dgranovsky@cantaloupe.com"/>
-    <hyperlink ref="C344" r:id="rId4" display="sprokhorov@cantaloupe.com"/>
+    <hyperlink ref="C180" r:id="rId3" display="RHurley@cantaloupe"/>
+    <hyperlink ref="C343" r:id="rId4" display="dgranovsky@cantaloupe.com"/>
+    <hyperlink ref="C344" r:id="rId5" display="sprokhorov@cantaloupe.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14544,6 +14545,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/DataLoading HRIS-First Load-13Apr2022 (1).xlsx
+++ b/DataLoading HRIS-First Load-13Apr2022 (1).xlsx
@@ -4286,7 +4286,7 @@
   <dimension ref="A1:S346"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C181" activeCellId="0" sqref="C181"/>
+      <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
